--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd2-Cd48.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd2-Cd48.xlsx
@@ -534,22 +534,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3942186666666667</v>
+        <v>0.6385226666666667</v>
       </c>
       <c r="H2">
-        <v>1.182656</v>
+        <v>1.915568</v>
       </c>
       <c r="I2">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="J2">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04476233333333334</v>
+        <v>1.163080333333333</v>
       </c>
       <c r="N2">
-        <v>0.134287</v>
+        <v>3.489241</v>
       </c>
       <c r="O2">
-        <v>0.0001606100819297279</v>
+        <v>0.004254373353458465</v>
       </c>
       <c r="P2">
-        <v>0.000160610081929728</v>
+        <v>0.004254373353458466</v>
       </c>
       <c r="Q2">
-        <v>0.01764614736355556</v>
+        <v>0.7426531559875555</v>
       </c>
       <c r="R2">
-        <v>0.158815326272</v>
+        <v>6.683878403887999</v>
       </c>
       <c r="S2">
-        <v>4.289334276078922E-05</v>
+        <v>0.001241610878271673</v>
       </c>
       <c r="T2">
-        <v>4.289334276078922E-05</v>
+        <v>0.001241610878271673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3942186666666667</v>
+        <v>0.6385226666666667</v>
       </c>
       <c r="H3">
-        <v>1.182656</v>
+        <v>1.915568</v>
       </c>
       <c r="I3">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="J3">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>109.277106</v>
+        <v>126.8932496666667</v>
       </c>
       <c r="N3">
-        <v>327.831318</v>
+        <v>380.679749</v>
       </c>
       <c r="O3">
-        <v>0.392093164960947</v>
+        <v>0.464156468511879</v>
       </c>
       <c r="P3">
-        <v>0.392093164960947</v>
+        <v>0.464156468511879</v>
       </c>
       <c r="Q3">
-        <v>43.07907502451201</v>
+        <v>81.02421615915912</v>
       </c>
       <c r="R3">
-        <v>387.7116752206081</v>
+        <v>729.217945432432</v>
       </c>
       <c r="S3">
-        <v>0.1047143885163514</v>
+        <v>0.1354610121502441</v>
       </c>
       <c r="T3">
-        <v>0.1047143885163515</v>
+        <v>0.1354610121502441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3942186666666667</v>
+        <v>0.6385226666666667</v>
       </c>
       <c r="H4">
-        <v>1.182656</v>
+        <v>1.915568</v>
       </c>
       <c r="I4">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="J4">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1023676666666667</v>
+        <v>0.00603</v>
       </c>
       <c r="N4">
-        <v>0.307103</v>
+        <v>0.01809</v>
       </c>
       <c r="O4">
-        <v>0.0003673016598097004</v>
+        <v>2.205683527278959E-05</v>
       </c>
       <c r="P4">
-        <v>0.0003673016598097004</v>
+        <v>2.20568352727896E-05</v>
       </c>
       <c r="Q4">
-        <v>0.04035524506311112</v>
+        <v>0.00385029168</v>
       </c>
       <c r="R4">
-        <v>0.3631972055680001</v>
+        <v>0.03465262512</v>
       </c>
       <c r="S4">
-        <v>9.80934434596547E-05</v>
+        <v>6.437142286226305E-06</v>
       </c>
       <c r="T4">
-        <v>9.80934434596547E-05</v>
+        <v>6.437142286226306E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3942186666666667</v>
+        <v>0.6385226666666667</v>
       </c>
       <c r="H5">
-        <v>1.182656</v>
+        <v>1.915568</v>
       </c>
       <c r="I5">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="J5">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.77324366666667</v>
+        <v>32.943215</v>
       </c>
       <c r="N5">
-        <v>104.319731</v>
+        <v>98.829645</v>
       </c>
       <c r="O5">
-        <v>0.1247685966832022</v>
+        <v>0.1205013377464496</v>
       </c>
       <c r="P5">
-        <v>0.1247685966832022</v>
+        <v>0.1205013377464497</v>
       </c>
       <c r="Q5">
-        <v>13.70826175394845</v>
+        <v>21.03498949037333</v>
       </c>
       <c r="R5">
-        <v>123.374355785536</v>
+        <v>189.31490541336</v>
       </c>
       <c r="S5">
-        <v>0.03332133399730672</v>
+        <v>0.03516752277292615</v>
       </c>
       <c r="T5">
-        <v>0.03332133399730672</v>
+        <v>0.03516752277292616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3942186666666667</v>
+        <v>0.6385226666666667</v>
       </c>
       <c r="H6">
-        <v>1.182656</v>
+        <v>1.915568</v>
       </c>
       <c r="I6">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="J6">
-        <v>0.2670650699223006</v>
+        <v>0.291843422078211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>134.50441</v>
+        <v>112.3790663333333</v>
       </c>
       <c r="N6">
-        <v>403.51323</v>
+        <v>337.137199</v>
       </c>
       <c r="O6">
-        <v>0.4826103266141112</v>
+        <v>0.4110657635529401</v>
       </c>
       <c r="P6">
-        <v>0.4826103266141112</v>
+        <v>0.4110657635529401</v>
       </c>
       <c r="Q6">
-        <v>53.02414917098668</v>
+        <v>71.75658111267023</v>
       </c>
       <c r="R6">
-        <v>477.2173425388801</v>
+        <v>645.809230014032</v>
       </c>
       <c r="S6">
-        <v>0.1288883606224219</v>
+        <v>0.1199668391344828</v>
       </c>
       <c r="T6">
-        <v>0.1288883606224219</v>
+        <v>0.1199668391344828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06229333333333333</v>
+        <v>0.6443276666666667</v>
       </c>
       <c r="H7">
-        <v>0.18688</v>
+        <v>1.932983</v>
       </c>
       <c r="I7">
-        <v>0.04220087689664579</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="J7">
-        <v>0.04220087689664578</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.04476233333333334</v>
+        <v>1.163080333333333</v>
       </c>
       <c r="N7">
-        <v>0.134287</v>
+        <v>3.489241</v>
       </c>
       <c r="O7">
-        <v>0.0001606100819297279</v>
+        <v>0.004254373353458465</v>
       </c>
       <c r="P7">
-        <v>0.000160610081929728</v>
+        <v>0.004254373353458466</v>
       </c>
       <c r="Q7">
-        <v>0.002788394951111112</v>
+        <v>0.7494048373225556</v>
       </c>
       <c r="R7">
-        <v>0.02509555456</v>
+        <v>6.744643535903</v>
       </c>
       <c r="S7">
-        <v>6.777886295876643E-06</v>
+        <v>0.001252898733072495</v>
       </c>
       <c r="T7">
-        <v>6.777886295876643E-06</v>
+        <v>0.001252898733072495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06229333333333333</v>
+        <v>0.6443276666666667</v>
       </c>
       <c r="H8">
-        <v>0.18688</v>
+        <v>1.932983</v>
       </c>
       <c r="I8">
-        <v>0.04220087689664579</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="J8">
-        <v>0.04220087689664578</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>109.277106</v>
+        <v>126.8932496666667</v>
       </c>
       <c r="N8">
-        <v>327.831318</v>
+        <v>380.679749</v>
       </c>
       <c r="O8">
-        <v>0.392093164960947</v>
+        <v>0.464156468511879</v>
       </c>
       <c r="P8">
-        <v>0.392093164960947</v>
+        <v>0.464156468511879</v>
       </c>
       <c r="Q8">
-        <v>6.80723518976</v>
+        <v>81.76083147347413</v>
       </c>
       <c r="R8">
-        <v>61.26511670784</v>
+        <v>735.847483261267</v>
       </c>
       <c r="S8">
-        <v>0.01654667538653315</v>
+        <v>0.1366925286125135</v>
       </c>
       <c r="T8">
-        <v>0.01654667538653315</v>
+        <v>0.1366925286125136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6443276666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.932983</v>
+      </c>
+      <c r="I9">
+        <v>0.2944966576696867</v>
+      </c>
+      <c r="J9">
+        <v>0.2944966576696867</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.06229333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.18688</v>
-      </c>
-      <c r="I9">
-        <v>0.04220087689664579</v>
-      </c>
-      <c r="J9">
-        <v>0.04220087689664578</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M9">
-        <v>0.1023676666666667</v>
+        <v>0.00603</v>
       </c>
       <c r="N9">
-        <v>0.307103</v>
+        <v>0.01809</v>
       </c>
       <c r="O9">
-        <v>0.0003673016598097004</v>
+        <v>2.205683527278959E-05</v>
       </c>
       <c r="P9">
-        <v>0.0003673016598097004</v>
+        <v>2.20568352727896E-05</v>
       </c>
       <c r="Q9">
-        <v>0.006376823182222223</v>
+        <v>0.00388529583</v>
       </c>
       <c r="R9">
-        <v>0.05739140864</v>
+        <v>0.03496766247</v>
       </c>
       <c r="S9">
-        <v>1.550045212956284E-05</v>
+        <v>6.495664266607389E-06</v>
       </c>
       <c r="T9">
-        <v>1.550045212956283E-05</v>
+        <v>6.49566426660739E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06229333333333333</v>
+        <v>0.6443276666666667</v>
       </c>
       <c r="H10">
-        <v>0.18688</v>
+        <v>1.932983</v>
       </c>
       <c r="I10">
-        <v>0.04220087689664579</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="J10">
-        <v>0.04220087689664578</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.77324366666667</v>
+        <v>32.943215</v>
       </c>
       <c r="N10">
-        <v>104.319731</v>
+        <v>98.829645</v>
       </c>
       <c r="O10">
-        <v>0.1247685966832022</v>
+        <v>0.1205013377464496</v>
       </c>
       <c r="P10">
-        <v>0.1247685966832022</v>
+        <v>0.1205013377464497</v>
       </c>
       <c r="Q10">
-        <v>2.166141258808889</v>
+        <v>21.22622485344834</v>
       </c>
       <c r="R10">
-        <v>19.49527132928</v>
+        <v>191.036023681035</v>
       </c>
       <c r="S10">
-        <v>0.005265344189195066</v>
+        <v>0.03548724121105548</v>
       </c>
       <c r="T10">
-        <v>0.005265344189195065</v>
+        <v>0.03548724121105549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06229333333333333</v>
+        <v>0.6443276666666667</v>
       </c>
       <c r="H11">
-        <v>0.18688</v>
+        <v>1.932983</v>
       </c>
       <c r="I11">
-        <v>0.04220087689664579</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="J11">
-        <v>0.04220087689664578</v>
+        <v>0.2944966576696867</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>134.50441</v>
+        <v>112.3790663333333</v>
       </c>
       <c r="N11">
-        <v>403.51323</v>
+        <v>337.137199</v>
       </c>
       <c r="O11">
-        <v>0.4826103266141112</v>
+        <v>0.4110657635529401</v>
       </c>
       <c r="P11">
-        <v>0.4826103266141112</v>
+        <v>0.4110657635529401</v>
       </c>
       <c r="Q11">
-        <v>8.378728046933334</v>
+        <v>72.40894159273523</v>
       </c>
       <c r="R11">
-        <v>75.40855242240001</v>
+        <v>651.6804743346171</v>
       </c>
       <c r="S11">
-        <v>0.02036657898249212</v>
+        <v>0.1210574934487786</v>
       </c>
       <c r="T11">
-        <v>0.02036657898249212</v>
+        <v>0.1210574934487786</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.019602666666667</v>
+        <v>0.9050443333333335</v>
       </c>
       <c r="H12">
-        <v>3.058808</v>
+        <v>2.715133</v>
       </c>
       <c r="I12">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="J12">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.04476233333333334</v>
+        <v>1.163080333333333</v>
       </c>
       <c r="N12">
-        <v>0.134287</v>
+        <v>3.489241</v>
       </c>
       <c r="O12">
-        <v>0.0001606100819297279</v>
+        <v>0.004254373353458465</v>
       </c>
       <c r="P12">
-        <v>0.000160610081929728</v>
+        <v>0.004254373353458466</v>
       </c>
       <c r="Q12">
-        <v>0.0456397944328889</v>
+        <v>1.052639264894778</v>
       </c>
       <c r="R12">
-        <v>0.4107581498960001</v>
+        <v>9.473753384052999</v>
       </c>
       <c r="S12">
-        <v>0.0001109388528730621</v>
+        <v>0.001759863742114298</v>
       </c>
       <c r="T12">
-        <v>0.0001109388528730621</v>
+        <v>0.001759863742114298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.019602666666667</v>
+        <v>0.9050443333333335</v>
       </c>
       <c r="H13">
-        <v>3.058808</v>
+        <v>2.715133</v>
       </c>
       <c r="I13">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="J13">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>109.277106</v>
+        <v>126.8932496666667</v>
       </c>
       <c r="N13">
-        <v>327.831318</v>
+        <v>380.679749</v>
       </c>
       <c r="O13">
-        <v>0.392093164960947</v>
+        <v>0.464156468511879</v>
       </c>
       <c r="P13">
-        <v>0.392093164960947</v>
+        <v>0.464156468511879</v>
       </c>
       <c r="Q13">
-        <v>111.419228683216</v>
+        <v>114.8440165490686</v>
       </c>
       <c r="R13">
-        <v>1002.773058148944</v>
+        <v>1033.596148941617</v>
       </c>
       <c r="S13">
-        <v>0.2708321010580624</v>
+        <v>0.1920029277491213</v>
       </c>
       <c r="T13">
-        <v>0.2708321010580624</v>
+        <v>0.1920029277491213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.019602666666667</v>
+        <v>0.9050443333333335</v>
       </c>
       <c r="H14">
-        <v>3.058808</v>
+        <v>2.715133</v>
       </c>
       <c r="I14">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="J14">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1023676666666667</v>
+        <v>0.00603</v>
       </c>
       <c r="N14">
-        <v>0.307103</v>
+        <v>0.01809</v>
       </c>
       <c r="O14">
-        <v>0.0003673016598097004</v>
+        <v>2.205683527278959E-05</v>
       </c>
       <c r="P14">
-        <v>0.0003673016598097004</v>
+        <v>2.20568352727896E-05</v>
       </c>
       <c r="Q14">
-        <v>0.1043743459137778</v>
+        <v>0.00545741733</v>
       </c>
       <c r="R14">
-        <v>0.9393691132240001</v>
+        <v>0.04911675597</v>
       </c>
       <c r="S14">
-        <v>0.0002537077642204829</v>
+        <v>9.124028719955902E-06</v>
       </c>
       <c r="T14">
-        <v>0.0002537077642204829</v>
+        <v>9.124028719955904E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.019602666666667</v>
+        <v>0.9050443333333335</v>
       </c>
       <c r="H15">
-        <v>3.058808</v>
+        <v>2.715133</v>
       </c>
       <c r="I15">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="J15">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.77324366666667</v>
+        <v>32.943215</v>
       </c>
       <c r="N15">
-        <v>104.319731</v>
+        <v>98.829645</v>
       </c>
       <c r="O15">
-        <v>0.1247685966832022</v>
+        <v>0.1205013377464496</v>
       </c>
       <c r="P15">
-        <v>0.1247685966832022</v>
+        <v>0.1205013377464497</v>
       </c>
       <c r="Q15">
-        <v>35.45489197118311</v>
+        <v>29.81507005753167</v>
       </c>
       <c r="R15">
-        <v>319.094027740648</v>
+        <v>268.335630517785</v>
       </c>
       <c r="S15">
-        <v>0.08618191849670044</v>
+        <v>0.04984657376246801</v>
       </c>
       <c r="T15">
-        <v>0.08618191849670045</v>
+        <v>0.04984657376246802</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.019602666666667</v>
+        <v>0.9050443333333335</v>
       </c>
       <c r="H16">
-        <v>3.058808</v>
+        <v>2.715133</v>
       </c>
       <c r="I16">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="J16">
-        <v>0.6907340531810536</v>
+        <v>0.4136599202521024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>134.50441</v>
+        <v>112.3790663333333</v>
       </c>
       <c r="N16">
-        <v>403.51323</v>
+        <v>337.137199</v>
       </c>
       <c r="O16">
-        <v>0.4826103266141112</v>
+        <v>0.4110657635529401</v>
       </c>
       <c r="P16">
-        <v>0.4826103266141112</v>
+        <v>0.4110657635529401</v>
       </c>
       <c r="Q16">
-        <v>137.1410551144267</v>
+        <v>101.7080371702741</v>
       </c>
       <c r="R16">
-        <v>1234.26949602984</v>
+        <v>915.3723345324671</v>
       </c>
       <c r="S16">
-        <v>0.3333553870091971</v>
+        <v>0.1700414309696787</v>
       </c>
       <c r="T16">
-        <v>0.3333553870091972</v>
+        <v>0.1700414309696788</v>
       </c>
     </row>
   </sheetData>
